--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl12-Ccr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl12-Ccr2.xlsx
@@ -546,10 +546,10 @@
         <v>0.846464</v>
       </c>
       <c r="I2">
-        <v>0.003251136722938652</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="J2">
-        <v>0.003251136722938651</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1067053333333333</v>
+        <v>0.177232</v>
       </c>
       <c r="N2">
-        <v>0.320116</v>
+        <v>0.5316959999999999</v>
       </c>
       <c r="O2">
-        <v>0.0004703131782773351</v>
+        <v>0.0005104719838156216</v>
       </c>
       <c r="P2">
-        <v>0.0004703131782773351</v>
+        <v>0.0005104719838156217</v>
       </c>
       <c r="Q2">
-        <v>0.03010740775822222</v>
+        <v>0.05000683588266666</v>
       </c>
       <c r="R2">
-        <v>0.270966669824</v>
+        <v>0.4500615229439999</v>
       </c>
       <c r="S2">
-        <v>1.529052445179437E-06</v>
+        <v>2.921431556304487E-06</v>
       </c>
       <c r="T2">
-        <v>1.529052445179437E-06</v>
+        <v>2.921431556304488E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.846464</v>
       </c>
       <c r="I3">
-        <v>0.003251136722938652</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="J3">
-        <v>0.003251136722938651</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,10 +626,10 @@
         <v>0.243407</v>
       </c>
       <c r="O3">
-        <v>0.0003576126147551241</v>
+        <v>0.0002336907822601807</v>
       </c>
       <c r="P3">
-        <v>0.0003576126147551241</v>
+        <v>0.0002336907822601807</v>
       </c>
       <c r="Q3">
         <v>0.02289280698311112</v>
@@ -638,10 +638,10 @@
         <v>0.206035262848</v>
       </c>
       <c r="S3">
-        <v>1.162647504416497E-06</v>
+        <v>1.337412526754775E-06</v>
       </c>
       <c r="T3">
-        <v>1.162647504416497E-06</v>
+        <v>1.337412526754775E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.846464</v>
       </c>
       <c r="I4">
-        <v>0.003251136722938652</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="J4">
-        <v>0.003251136722938651</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>57.87945166666666</v>
+        <v>274.5137023333334</v>
       </c>
       <c r="N4">
-        <v>173.638355</v>
+        <v>823.541107</v>
       </c>
       <c r="O4">
-        <v>0.2551087937213329</v>
+        <v>0.7906673411949746</v>
       </c>
       <c r="P4">
-        <v>0.2551087937213329</v>
+        <v>0.7906673411949746</v>
       </c>
       <c r="Q4">
-        <v>16.33095739185778</v>
+        <v>77.45532217729424</v>
       </c>
       <c r="R4">
-        <v>146.97861652672</v>
+        <v>697.097899595648</v>
       </c>
       <c r="S4">
-        <v>0.0008293935676120067</v>
+        <v>0.004524989802262441</v>
       </c>
       <c r="T4">
-        <v>0.0008293935676120065</v>
+        <v>0.004524989802262441</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.846464</v>
       </c>
       <c r="I5">
-        <v>0.003251136722938652</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="J5">
-        <v>0.003251136722938651</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.065871</v>
+        <v>0.042388</v>
       </c>
       <c r="N5">
-        <v>0.197613</v>
+        <v>0.127164</v>
       </c>
       <c r="O5">
-        <v>0.0002903322486189975</v>
+        <v>0.0001220879211991998</v>
       </c>
       <c r="P5">
-        <v>0.0002903322486189975</v>
+        <v>0.0001220879211991998</v>
       </c>
       <c r="Q5">
-        <v>0.018585810048</v>
+        <v>0.01195997201066667</v>
       </c>
       <c r="R5">
-        <v>0.167272290432</v>
+        <v>0.107639748096</v>
       </c>
       <c r="S5">
-        <v>9.439098353385776E-07</v>
+        <v>6.987092669982545E-07</v>
       </c>
       <c r="T5">
-        <v>9.439098353385774E-07</v>
+        <v>6.987092669982545E-07</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.846464</v>
       </c>
       <c r="I6">
-        <v>0.003251136722938652</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="J6">
-        <v>0.003251136722938651</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>168.748281</v>
+        <v>72.37795533333333</v>
       </c>
       <c r="N6">
-        <v>506.244843</v>
+        <v>217.133866</v>
       </c>
       <c r="O6">
-        <v>0.7437729482370157</v>
+        <v>0.2084664081177503</v>
       </c>
       <c r="P6">
-        <v>0.7437729482370157</v>
+        <v>0.2084664081177503</v>
       </c>
       <c r="Q6">
-        <v>47.613114976128</v>
+        <v>20.42177786109156</v>
       </c>
       <c r="R6">
-        <v>428.518034785152</v>
+        <v>183.796000749824</v>
       </c>
       <c r="S6">
-        <v>0.00241810754554171</v>
+        <v>0.001193053414121585</v>
       </c>
       <c r="T6">
-        <v>0.00241810754554171</v>
+        <v>0.001193053414121585</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>55.96940366666666</v>
+        <v>30.199365</v>
       </c>
       <c r="H7">
-        <v>167.908211</v>
+        <v>90.598095</v>
       </c>
       <c r="I7">
-        <v>0.6449093533393406</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="J7">
-        <v>0.6449093533393405</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1067053333333333</v>
+        <v>0.177232</v>
       </c>
       <c r="N7">
-        <v>0.320116</v>
+        <v>0.5316959999999999</v>
       </c>
       <c r="O7">
-        <v>0.0004703131782773351</v>
+        <v>0.0005104719838156216</v>
       </c>
       <c r="P7">
-        <v>0.0004703131782773351</v>
+        <v>0.0005104719838156217</v>
       </c>
       <c r="Q7">
-        <v>5.972233874719556</v>
+        <v>5.352293857679999</v>
       </c>
       <c r="R7">
-        <v>53.750104872476</v>
+        <v>48.17064471912</v>
       </c>
       <c r="S7">
-        <v>0.0003033093676698062</v>
+        <v>0.0003126844540040354</v>
       </c>
       <c r="T7">
-        <v>0.0003033093676698061</v>
+        <v>0.0003126844540040355</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>55.96940366666666</v>
+        <v>30.199365</v>
       </c>
       <c r="H8">
-        <v>167.908211</v>
+        <v>90.598095</v>
       </c>
       <c r="I8">
-        <v>0.6449093533393406</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="J8">
-        <v>0.6449093533393405</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,22 +936,22 @@
         <v>0.243407</v>
       </c>
       <c r="O8">
-        <v>0.0003576126147551241</v>
+        <v>0.0002336907822601807</v>
       </c>
       <c r="P8">
-        <v>0.0003576126147551241</v>
+        <v>0.0002336907822601807</v>
       </c>
       <c r="Q8">
-        <v>4.541114879430778</v>
+        <v>2.450245612185</v>
       </c>
       <c r="R8">
-        <v>40.870033914877</v>
+        <v>22.052210509665</v>
       </c>
       <c r="S8">
-        <v>0.0002306277201277178</v>
+        <v>0.0001431449266042255</v>
       </c>
       <c r="T8">
-        <v>0.0002306277201277178</v>
+        <v>0.0001431449266042255</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>55.96940366666666</v>
+        <v>30.199365</v>
       </c>
       <c r="H9">
-        <v>167.908211</v>
+        <v>90.598095</v>
       </c>
       <c r="I9">
-        <v>0.6449093533393406</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="J9">
-        <v>0.6449093533393405</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>57.87945166666666</v>
+        <v>274.5137023333334</v>
       </c>
       <c r="N9">
-        <v>173.638355</v>
+        <v>823.541107</v>
       </c>
       <c r="O9">
-        <v>0.2551087937213329</v>
+        <v>0.7906673411949746</v>
       </c>
       <c r="P9">
-        <v>0.2551087937213329</v>
+        <v>0.7906673411949746</v>
       </c>
       <c r="Q9">
-        <v>3239.478394336989</v>
+        <v>8290.139494265686</v>
       </c>
       <c r="R9">
-        <v>29155.3055490329</v>
+        <v>74611.25544839117</v>
       </c>
       <c r="S9">
-        <v>0.164522047190004</v>
+        <v>0.4843152880446232</v>
       </c>
       <c r="T9">
-        <v>0.164522047190004</v>
+        <v>0.4843152880446232</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>55.96940366666666</v>
+        <v>30.199365</v>
       </c>
       <c r="H10">
-        <v>167.908211</v>
+        <v>90.598095</v>
       </c>
       <c r="I10">
-        <v>0.6449093533393406</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="J10">
-        <v>0.6449093533393405</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.065871</v>
+        <v>0.042388</v>
       </c>
       <c r="N10">
-        <v>0.197613</v>
+        <v>0.127164</v>
       </c>
       <c r="O10">
-        <v>0.0002903322486189975</v>
+        <v>0.0001220879211991998</v>
       </c>
       <c r="P10">
-        <v>0.0002903322486189975</v>
+        <v>0.0001220879211991998</v>
       </c>
       <c r="Q10">
-        <v>3.686760588927</v>
+        <v>1.28009068362</v>
       </c>
       <c r="R10">
-        <v>33.18084530034299</v>
+        <v>11.52081615258</v>
       </c>
       <c r="S10">
-        <v>0.0001872379827104344</v>
+        <v>7.478372210618316E-05</v>
       </c>
       <c r="T10">
-        <v>0.0001872379827104343</v>
+        <v>7.478372210618316E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>55.96940366666666</v>
+        <v>30.199365</v>
       </c>
       <c r="H11">
-        <v>167.908211</v>
+        <v>90.598095</v>
       </c>
       <c r="I11">
-        <v>0.6449093533393406</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="J11">
-        <v>0.6449093533393405</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>168.748281</v>
+        <v>72.37795533333333</v>
       </c>
       <c r="N11">
-        <v>506.244843</v>
+        <v>217.133866</v>
       </c>
       <c r="O11">
-        <v>0.7437729482370157</v>
+        <v>0.2084664081177503</v>
       </c>
       <c r="P11">
-        <v>0.7437729482370157</v>
+        <v>0.2084664081177503</v>
       </c>
       <c r="Q11">
-        <v>9444.740657345095</v>
+        <v>2185.76829106503</v>
       </c>
       <c r="R11">
-        <v>85002.66591610588</v>
+        <v>19671.91461958527</v>
       </c>
       <c r="S11">
-        <v>0.4796661310788287</v>
+        <v>0.127693991182923</v>
       </c>
       <c r="T11">
-        <v>0.4796661310788286</v>
+        <v>0.127693991182923</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>30.53490766666667</v>
+        <v>18.820355</v>
       </c>
       <c r="H12">
-        <v>91.60472300000001</v>
+        <v>56.461065</v>
       </c>
       <c r="I12">
-        <v>0.3518395099377208</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="J12">
-        <v>0.3518395099377208</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1067053333333333</v>
+        <v>0.177232</v>
       </c>
       <c r="N12">
-        <v>0.320116</v>
+        <v>0.5316959999999999</v>
       </c>
       <c r="O12">
-        <v>0.0004703131782773351</v>
+        <v>0.0005104719838156216</v>
       </c>
       <c r="P12">
-        <v>0.0004703131782773351</v>
+        <v>0.0005104719838156217</v>
       </c>
       <c r="Q12">
-        <v>3.258237500874222</v>
+        <v>3.335569157359999</v>
       </c>
       <c r="R12">
-        <v>29.324137507868</v>
+        <v>30.02012241624</v>
       </c>
       <c r="S12">
-        <v>0.0001654747581623495</v>
+        <v>0.0001948660982552818</v>
       </c>
       <c r="T12">
-        <v>0.0001654747581623495</v>
+        <v>0.0001948660982552818</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>30.53490766666667</v>
+        <v>18.820355</v>
       </c>
       <c r="H13">
-        <v>91.60472300000001</v>
+        <v>56.461065</v>
       </c>
       <c r="I13">
-        <v>0.3518395099377208</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="J13">
-        <v>0.3518395099377208</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>0.243407</v>
       </c>
       <c r="O13">
-        <v>0.0003576126147551241</v>
+        <v>0.0002336907822601807</v>
       </c>
       <c r="P13">
-        <v>0.0003576126147551241</v>
+        <v>0.0002336907822601807</v>
       </c>
       <c r="Q13">
-        <v>2.477470090140112</v>
+        <v>1.527002049828333</v>
       </c>
       <c r="R13">
-        <v>22.297230811261</v>
+        <v>13.743018448455</v>
       </c>
       <c r="S13">
-        <v>0.0001258222471229898</v>
+        <v>8.920844312920049E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001258222471229898</v>
+        <v>8.920844312920049E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>30.53490766666667</v>
+        <v>18.820355</v>
       </c>
       <c r="H14">
-        <v>91.60472300000001</v>
+        <v>56.461065</v>
       </c>
       <c r="I14">
-        <v>0.3518395099377208</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="J14">
-        <v>0.3518395099377208</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>57.87945166666666</v>
+        <v>274.5137023333334</v>
       </c>
       <c r="N14">
-        <v>173.638355</v>
+        <v>823.541107</v>
       </c>
       <c r="O14">
-        <v>0.2551087937213329</v>
+        <v>0.7906673411949746</v>
       </c>
       <c r="P14">
-        <v>0.2551087937213329</v>
+        <v>0.7906673411949746</v>
       </c>
       <c r="Q14">
-        <v>1767.343712438963</v>
+        <v>5166.445330277662</v>
       </c>
       <c r="R14">
-        <v>15906.09341195067</v>
+        <v>46498.00797249896</v>
       </c>
       <c r="S14">
-        <v>0.08975735296371688</v>
+        <v>0.3018270633480891</v>
       </c>
       <c r="T14">
-        <v>0.08975735296371687</v>
+        <v>0.3018270633480891</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>30.53490766666667</v>
+        <v>18.820355</v>
       </c>
       <c r="H15">
-        <v>91.60472300000001</v>
+        <v>56.461065</v>
       </c>
       <c r="I15">
-        <v>0.3518395099377208</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="J15">
-        <v>0.3518395099377208</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.065871</v>
+        <v>0.042388</v>
       </c>
       <c r="N15">
-        <v>0.197613</v>
+        <v>0.127164</v>
       </c>
       <c r="O15">
-        <v>0.0002903322486189975</v>
+        <v>0.0001220879211991998</v>
       </c>
       <c r="P15">
-        <v>0.0002903322486189975</v>
+        <v>0.0001220879211991998</v>
       </c>
       <c r="Q15">
-        <v>2.011364902911</v>
+        <v>0.79775720774</v>
       </c>
       <c r="R15">
-        <v>18.102284126199</v>
+        <v>7.179814869659999</v>
       </c>
       <c r="S15">
-        <v>0.0001021503560732246</v>
+        <v>4.660548982601835E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001021503560732246</v>
+        <v>4.660548982601835E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>30.53490766666667</v>
+        <v>18.820355</v>
       </c>
       <c r="H16">
-        <v>91.60472300000001</v>
+        <v>56.461065</v>
       </c>
       <c r="I16">
-        <v>0.3518395099377208</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="J16">
-        <v>0.3518395099377208</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>168.748281</v>
+        <v>72.37795533333333</v>
       </c>
       <c r="N16">
-        <v>506.244843</v>
+        <v>217.133866</v>
       </c>
       <c r="O16">
-        <v>0.7437729482370157</v>
+        <v>0.2084664081177503</v>
       </c>
       <c r="P16">
-        <v>0.7437729482370157</v>
+        <v>0.2084664081177503</v>
       </c>
       <c r="Q16">
-        <v>5152.713179243721</v>
+        <v>1362.178813547477</v>
       </c>
       <c r="R16">
-        <v>46374.41861319349</v>
+        <v>12259.60932192729</v>
       </c>
       <c r="S16">
-        <v>0.2616887096126454</v>
+        <v>0.07957936352070581</v>
       </c>
       <c r="T16">
-        <v>0.2616887096126453</v>
+        <v>0.07957936352070581</v>
       </c>
     </row>
   </sheetData>
